--- a/gps and fake bike generator.xlsx
+++ b/gps and fake bike generator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dbj/dev/broonge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B23A19-DFC1-9D45-BBCA-B46AC8104A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC0934C-35A2-214C-BBB3-779EE75D69D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{1F4C7C9C-6A9E-F846-9B0C-D30E7D3B6915}"/>
+    <workbookView xWindow="1900" yWindow="500" windowWidth="25000" windowHeight="14900" xr2:uid="{1F4C7C9C-6A9E-F846-9B0C-D30E7D3B6915}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1934BR0111241212319V0.853037.2122361N127.0895633E5990000062d</t>
+    <t>1934BR0111010000100V0.853037.2112361N127.0898533E5990000062e</t>
   </si>
 </sst>
 </file>
@@ -455,8 +455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{244A2867-3A8B-504F-AFC3-0EA9674E1E33}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -487,16 +487,16 @@
       </c>
       <c r="B2" t="str">
         <f>_xlfn.CONCAT(F2,C2,G2,N2,I2,O2,K2,L2,P2)</f>
-        <v>1934BR0111241212319V0.853037.2122361N127.0896533E5990000062d</v>
+        <v>1934BR0111010000100V0.853037.2112361N127.0898533E5990000062e</v>
       </c>
       <c r="C2" s="2">
-        <v>1241212319</v>
+        <v>1010000100</v>
       </c>
       <c r="D2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
@@ -524,15 +524,15 @@
       </c>
       <c r="N2" s="3">
         <f>H2+(D2*D1)</f>
-        <v>37.212236099999998</v>
+        <v>37.211236100000001</v>
       </c>
       <c r="O2">
         <f>J2+(E2*E1)</f>
-        <v>127.08965330000001</v>
+        <v>127.0898533</v>
       </c>
       <c r="P2" t="str">
         <f>IF(D2+E2=-1,"2a",IF(D2+E2=0,"2b",IF(D2+E2=1,"2c",IF(D2+E2=2,"2d",IF(D2+E2=3,"2e")))))</f>
-        <v>2d</v>
+        <v>2e</v>
       </c>
     </row>
   </sheetData>
